--- a/data/trans_bre/P38C-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Clase-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>5.732292533984317</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3.392245136070571</v>
+        <v>3.39224513607056</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.06672914038288942</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.03963074598180805</v>
+        <v>0.03963074598180793</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9917236956771387</v>
+        <v>1.019157030180146</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7792855650101285</v>
+        <v>-1.100204698695793</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.01137568285434848</v>
+        <v>0.01266615837284143</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.009421584683961728</v>
+        <v>-0.01223141372279629</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.65772567851047</v>
+        <v>10.1670350121018</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.686336713230209</v>
+        <v>7.617140199032088</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1294396068608435</v>
+        <v>0.1232922059297019</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.09223773949365591</v>
+        <v>0.09192815771473556</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.758234143358457</v>
+        <v>-2.895351831453388</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.464173858665336</v>
+        <v>-2.121239027919112</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.03075939299853594</v>
+        <v>-0.03264221447771029</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.02829404419028946</v>
+        <v>-0.02432378393599637</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.535315191907857</v>
+        <v>7.273815640978774</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.062636329098759</v>
+        <v>7.478293601564815</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0906219538538104</v>
+        <v>0.08697725022791154</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.08467261977195573</v>
+        <v>0.09215937376144968</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>1.884418231107021</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>5.691746110220475</v>
+        <v>5.691746110220485</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.02183156144090818</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.06648857680480885</v>
+        <v>0.06648857680480899</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.310389019227547</v>
+        <v>-4.181489857969916</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4859572335114396</v>
+        <v>-0.2179059314207091</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.04920972268792703</v>
+        <v>-0.0468943338764176</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.005957713061869071</v>
+        <v>-0.00138859335560589</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.433164233995504</v>
+        <v>7.617368342415911</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.54722463870675</v>
+        <v>10.30252407898251</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.08753261914679231</v>
+        <v>0.08961313108408636</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1276700129721597</v>
+        <v>0.123597119045284</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>2.098067886617117</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.388174836096962</v>
+        <v>7.38817483609695</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.02505292209097885</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.09099809545435386</v>
+        <v>0.09099809545435371</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.005934376102845</v>
+        <v>-1.56256195279245</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.646450239773511</v>
+        <v>3.686758998011589</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01181801802716503</v>
+        <v>-0.01805115612091629</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04473222225148893</v>
+        <v>0.04315899134265729</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.519329747643131</v>
+        <v>5.390709865639873</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.85008178745404</v>
+        <v>11.07707978065064</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.06805025081041009</v>
+        <v>0.06527607115360351</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1376851151813868</v>
+        <v>0.1401401229007203</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>6.862340186150395</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>13.21689891259701</v>
+        <v>13.21689891259702</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.08565249124000154</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.1753832611768609</v>
+        <v>0.175383261176861</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.219655349713567</v>
+        <v>2.668447185044066</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.475960368351705</v>
+        <v>8.684443204455466</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.03890879174563842</v>
+        <v>0.03176767725248206</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.1089884061407992</v>
+        <v>0.1092151767446118</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.79699283286379</v>
+        <v>11.02641042388445</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.66602887800581</v>
+        <v>17.97821808715001</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.1404022733510647</v>
+        <v>0.141610524843863</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.2458984545086826</v>
+        <v>0.2497919914183928</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>32.87375723931342</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>38.27607979876232</v>
+        <v>38.27607979876233</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.6052819289552558</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.9151364443297882</v>
+        <v>0.9151364443297886</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>26.57711431159145</v>
+        <v>26.49690156201998</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>26.60249235232845</v>
+        <v>26.77174947240894</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4422200080490444</v>
+        <v>0.4445122362543188</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.5089816849405773</v>
+        <v>0.5000665676712769</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>39.81897652369024</v>
+        <v>38.68259747062879</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>47.68457603851163</v>
+        <v>48.5748202893563</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.82857953627779</v>
+        <v>0.798924849011211</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.421479325245736</v>
+        <v>1.478266208788491</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>5.864584136133344</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>7.334151010359069</v>
+        <v>7.334151010359058</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0.07190791702651159</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.09243329179944704</v>
+        <v>0.0924332917994469</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.043130361469766</v>
+        <v>4.013430384500865</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.273962114507321</v>
+        <v>5.283489680119489</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.04855642626864298</v>
+        <v>0.04882285992844805</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.06586592199412161</v>
+        <v>0.06557872805881032</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.551594884408487</v>
+        <v>7.651449449260847</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>9.634562486044125</v>
+        <v>9.574407307359872</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.09389642169305104</v>
+        <v>0.09509125729975695</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.1248484268452985</v>
+        <v>0.1233782746120558</v>
       </c>
     </row>
     <row r="25">
